--- a/output_data/1_motor_only_pre.xlsx
+++ b/output_data/1_motor_only_pre.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,14 +10,14 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{8F10927D-B067-45BA-88FF-193CF8496CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11505" xr2:uid="{B26088EA-7DD4-44A9-AE95-E88BD141D0BE}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>run_num</t>
   </si>
@@ -53,6 +53,78 @@
   </si>
   <si>
     <t>hand</t>
+  </si>
+  <si>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>block_num</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>play_duration</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>block_num</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>play_duration</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>block_num</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>play_duration</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -76,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -84,12 +156,18 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,92 +484,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788622B4-E9CF-4954-8F25-1E6C1205A6C3}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="10.85546875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="10.28515625" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="13.42578125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="5.7109375" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="5.5703125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0">
+        <v>999</v>
+      </c>
+      <c r="D2" s="0">
+        <v>999</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C3" s="0">
+        <v>999</v>
+      </c>
+      <c r="D3" s="0">
+        <v>999</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C4" s="0">
+        <v>999</v>
+      </c>
+      <c r="D4" s="0">
+        <v>999</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" s="0">
+        <v>1</v>
+      </c>
+      <c r="B5" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+      <c r="C5" s="0">
+        <v>999</v>
+      </c>
+      <c r="D5" s="0">
+        <v>999</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/output_data/1_motor_only_pre.xlsx
+++ b/output_data/1_motor_only_pre.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>run_num</t>
   </si>
@@ -119,6 +119,81 @@
   </si>
   <si>
     <t>hand</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>block_num</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>play_duration</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>block_num</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>play_duration</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
   <si>
     <t>R</t>
@@ -148,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -159,15 +234,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788622B4-E9CF-4954-8F25-1E6C1205A6C3}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -498,22 +577,22 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.25">
@@ -530,10 +609,10 @@
         <v>999</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
@@ -550,10 +629,10 @@
         <v>999</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
@@ -570,10 +649,10 @@
         <v>999</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
@@ -590,10 +669,250 @@
         <v>999</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>1</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0">
+        <v>999</v>
+      </c>
+      <c r="D6" s="0">
+        <v>999</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0">
+        <v>999</v>
+      </c>
+      <c r="D7" s="0">
+        <v>999</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0">
+        <v>999</v>
+      </c>
+      <c r="D8" s="0">
+        <v>999</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0">
+        <v>999</v>
+      </c>
+      <c r="D9" s="0">
+        <v>999</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>1</v>
+      </c>
+      <c r="B10" s="0">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0">
+        <v>999</v>
+      </c>
+      <c r="D10" s="0">
+        <v>999</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0">
+        <v>999</v>
+      </c>
+      <c r="D11" s="0">
+        <v>999</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>1</v>
+      </c>
+      <c r="B12" s="0">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0">
+        <v>999</v>
+      </c>
+      <c r="D12" s="0">
+        <v>999</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>1</v>
+      </c>
+      <c r="B13" s="0">
+        <v>12</v>
+      </c>
+      <c r="C13" s="0">
+        <v>999</v>
+      </c>
+      <c r="D13" s="0">
+        <v>999</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>1</v>
+      </c>
+      <c r="B14" s="0">
+        <v>13</v>
+      </c>
+      <c r="C14" s="0">
+        <v>999</v>
+      </c>
+      <c r="D14" s="0">
+        <v>999</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>1</v>
+      </c>
+      <c r="B15" s="0">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0">
+        <v>999</v>
+      </c>
+      <c r="D15" s="0">
+        <v>999</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>1</v>
+      </c>
+      <c r="B16" s="0">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0">
+        <v>999</v>
+      </c>
+      <c r="D16" s="0">
+        <v>999</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>1</v>
+      </c>
+      <c r="B17" s="0">
+        <v>16</v>
+      </c>
+      <c r="C17" s="0">
+        <v>999</v>
+      </c>
+      <c r="D17" s="0">
+        <v>999</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/output_data/1_motor_only_pre.xlsx
+++ b/output_data/1_motor_only_pre.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>run_num</t>
   </si>
@@ -200,6 +200,24 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>block_num</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>play_duration</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
 </sst>
 </file>
@@ -223,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -236,17 +254,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,109 +591,93 @@
     <col min="2" max="2" width="10.85546875" bestFit="true" customWidth="true"/>
     <col min="3" max="3" width="10.28515625" bestFit="true" customWidth="true"/>
     <col min="4" max="4" width="13.42578125" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="5.7109375" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="4" bestFit="true" customWidth="true"/>
     <col min="6" max="6" width="5.5703125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="0" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.25">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>999</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>999</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0">
-        <v>999</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>999</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0">

--- a/output_data/1_motor_only_pre.xlsx
+++ b/output_data/1_motor_only_pre.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>run_num</t>
   </si>
@@ -200,6 +200,24 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>block_num</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>play_duration</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>run_num</t>
@@ -241,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -255,11 +273,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -267,6 +286,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,22 +617,22 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.25">

--- a/output_data/1_motor_only_pre.xlsx
+++ b/output_data/1_motor_only_pre.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,14 +10,14 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{973DC5FC-C868-46BC-BE21-F9B4CEFFC195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>run_num</t>
+  </si>
+  <si>
+    <t>block_num</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>play_duration</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
   <si>
     <t>run_num</t>
   </si>
@@ -76,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,12 +102,14 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,95 +426,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788622B4-E9CF-4954-8F25-1E6C1205A6C3}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="10.85546875" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="10.28515625" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="13.42578125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="4" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="5.5703125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="0">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="0">
+        <v>0</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -508,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -522,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -536,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -550,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -564,7 +592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -578,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -592,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -606,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -620,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -634,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -648,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -662,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -676,7 +704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -690,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -704,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>

--- a/output_data/1_motor_only_pre.xlsx
+++ b/output_data/1_motor_only_pre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\MSc-neuroscience\auditory-experiment-code\output_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{973DC5FC-C868-46BC-BE21-F9B4CEFFC195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F4F11CD-CD28-4080-894C-DEFD6C672801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
